--- a/기타 등등/캐릭터 시트 - 복사본.xlsx
+++ b/기타 등등/캐릭터 시트 - 복사본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\개인프로젝트_조하진\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E627813F-CB77-427C-81BD-7A868D253B8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3116CD8C-B51B-4E3D-BBC3-8C1605C436BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1" xr2:uid="{BD638DF2-6CCD-47DB-9D68-03F74730622D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" firstSheet="3" activeTab="7" xr2:uid="{BD638DF2-6CCD-47DB-9D68-03F74730622D}"/>
   </bookViews>
   <sheets>
     <sheet name="플레이어블" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="207">
   <si>
     <t>앨리스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>못 움직임(상대말 하나 다음 차례에)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>숫자 범위 변하지 않음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,9 +599,6 @@
     <t>o014</t>
   </si>
   <si>
-    <t>o015</t>
-  </si>
-  <si>
     <t>보아뱀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,18 +607,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o016</t>
-  </si>
-  <si>
-    <t>o017</t>
-  </si>
-  <si>
-    <t>o018</t>
-  </si>
-  <si>
-    <t>o019</t>
-  </si>
-  <si>
     <t>n015</t>
   </si>
   <si>
@@ -662,9 +643,6 @@
     <t>u019</t>
   </si>
   <si>
-    <t>u020</t>
-  </si>
-  <si>
     <t>n022</t>
   </si>
   <si>
@@ -699,10 +677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상대 숫자 변동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자신 숫자 변동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -808,6 +782,18 @@
   </si>
   <si>
     <t>n002</t>
+  </si>
+  <si>
+    <t>못 움직임 사망시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못 움직임 이동 대신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격시 상대 숫자 변동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1238,10 +1224,10 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1272,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
         <v>68</v>
@@ -1283,13 +1269,13 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -1300,10 +1286,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
@@ -1317,10 +1303,10 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
         <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -1334,10 +1320,10 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
         <v>108</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -1351,10 +1337,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
@@ -1395,7 +1381,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1406,33 +1392,33 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1450,15 +1436,15 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1476,15 +1462,15 @@
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1502,15 +1488,15 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1528,18 +1514,18 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -1554,18 +1540,18 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -1580,18 +1566,18 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1605,10 +1591,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -1622,10 +1608,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -1639,10 +1625,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -1656,10 +1642,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12">
         <v>9.5</v>
@@ -1673,10 +1659,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <v>14.5</v>
@@ -1690,10 +1676,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -1707,10 +1693,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15">
         <v>19</v>
@@ -1724,7 +1710,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -1741,7 +1727,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -1758,7 +1744,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1775,7 +1761,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1792,10 +1778,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -1809,10 +1795,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -1826,10 +1812,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22">
         <v>9.5</v>
@@ -1843,10 +1829,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23">
         <v>13.5</v>
@@ -1860,10 +1846,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -1877,10 +1863,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -1894,10 +1880,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -1911,10 +1897,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -1928,10 +1914,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -1945,10 +1931,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29">
         <v>14</v>
@@ -1962,22 +1948,22 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1990,7 +1976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302314B5-4473-4FA0-8D90-C9980C5B2016}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
@@ -2012,13 +1998,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2032,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -2052,13 +2038,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2066,19 +2052,19 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2086,19 +2072,19 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
         <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2106,19 +2092,19 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
         <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2126,19 +2112,19 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
         <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2146,19 +2132,19 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
         <v>123</v>
       </c>
-      <c r="C8" t="s">
-        <v>124</v>
-      </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2169,11 +2155,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD4E6B7-D427-494A-B770-D1B751C777C9}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2208,13 +2194,13 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
@@ -2223,10 +2209,10 @@
         <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2277,7 +2263,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -2321,13 +2307,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -2368,10 +2354,10 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -2412,10 +2398,10 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -2456,10 +2442,10 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2500,10 +2486,10 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -2632,10 +2618,10 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -2676,10 +2662,10 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -2720,10 +2706,10 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -2764,10 +2750,10 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -2805,13 +2791,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -2845,41 +2831,6 @@
       </c>
       <c r="M15">
         <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2891,10 +2842,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C767A8-248E-4BF5-9F76-ADF2E29F758A}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="M16" sqref="A16:M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2929,13 +2880,13 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
@@ -2944,10 +2895,10 @@
         <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -3042,7 +2993,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -3083,7 +3034,7 @@
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -3121,10 +3072,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -3162,13 +3113,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -3206,10 +3157,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -3250,10 +3201,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -3270,10 +3221,10 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3294,10 +3245,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -3307,11 +3258,11 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3333,15 +3284,15 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -3382,10 +3333,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -3426,10 +3377,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -3470,10 +3421,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -3483,11 +3434,11 @@
       </c>
       <c r="E14">
         <f>INT(2+M14*G14)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <f>INT(4+M14*H14)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>1.4</v>
@@ -3509,15 +3460,15 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -3554,31 +3505,6 @@
       </c>
       <c r="M15">
         <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3590,10 +3516,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E390C7-0FFC-4DDD-829B-2EA2FC4DE81C}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A15"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3628,13 +3554,13 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
@@ -3643,10 +3569,10 @@
         <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -3744,10 +3670,10 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -3788,10 +3714,10 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -3832,10 +3758,10 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -3876,10 +3802,10 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -3920,10 +3846,10 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -3974,11 +3900,11 @@
       </c>
       <c r="E9">
         <f>INT(4+M9*G9)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <f>INT(4+M9*H9)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>1.6</v>
@@ -4000,12 +3926,12 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -4049,13 +3975,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -4093,13 +4019,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -4137,13 +4063,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -4181,24 +4107,24 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14">
         <f>INT(5+M14*G14)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <f>INT(5+M14*H14)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>2.6</v>
@@ -4220,29 +4146,29 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15">
         <f>INT(1+M15*G15)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f>INT(3+M15*H15)</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>1.7</v>
@@ -4264,37 +4190,7 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4323,13 +4219,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4371,7 +4267,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -4388,7 +4284,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -4405,7 +4301,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -4422,7 +4318,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -4439,7 +4335,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -4484,7 +4380,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4500,19 +4396,19 @@
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>77</v>
@@ -4539,21 +4435,23 @@
         <v>84</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="V1" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -4586,10 +4484,10 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -4597,7 +4495,7 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -4605,7 +4503,7 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -4616,10 +4514,10 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -4630,7 +4528,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -4654,7 +4552,7 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -4662,7 +4560,7 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -4670,10 +4568,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S13" t="b">
         <v>1</v>
@@ -4684,7 +4588,7 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q14" t="b">
         <v>1</v>
@@ -4692,50 +4596,50 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4749,9 +4653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613E1B72-A537-482B-9DB5-07FFB4E06D35}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4767,19 +4671,19 @@
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>77</v>
@@ -4806,21 +4710,23 @@
         <v>84</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="V1" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -4833,7 +4739,7 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2">
         <v>1</v>
       </c>
       <c r="J2" t="b">
@@ -4876,7 +4782,7 @@
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -4884,10 +4790,10 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -4895,10 +4801,10 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -4906,16 +4812,16 @@
       <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T8" t="b">
         <v>1</v>
@@ -4923,21 +4829,18 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q10" t="b">
         <v>1</v>
@@ -4945,10 +4848,10 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -4962,10 +4865,10 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -4976,10 +4879,10 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -4993,10 +4896,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -5004,10 +4907,10 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -5035,7 +4938,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5051,19 +4954,19 @@
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>77</v>
@@ -5090,21 +4993,23 @@
         <v>84</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="V1" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -5137,7 +5042,7 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S4" t="b">
         <v>1</v>
@@ -5148,7 +5053,7 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -5162,7 +5067,7 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -5170,7 +5075,7 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -5178,7 +5083,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
@@ -5194,13 +5099,13 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -5208,10 +5113,10 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q11" t="b">
         <v>1</v>
@@ -5219,10 +5124,10 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -5230,13 +5135,13 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -5244,10 +5149,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -5261,44 +5166,44 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
-      </c>
-      <c r="O15" t="b">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="Q15" t="b">
         <v>1</v>
       </c>
-      <c r="U15" t="b">
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
